--- a/R-project/Sigmoid Data.xlsx
+++ b/R-project/Sigmoid Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/d_dubins_utoronto_ca/Documents/Lectures/PHC331 2023/Section 4 - Compartmental PK Analysis/Outgoing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/d_dubins_utoronto_ca/Documents/Lectures/PHC331 2026/Section 4 - Compartmental PK Analysis/Outgoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_77433265717345D842E5B06D7B68D55FF73956CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB686870-1BB4-4BB7-8337-885FA20B7EFA}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="11_77433265717345D842E5B06D7B68D55FF73956CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD20EE7-C29B-409D-AA34-B25E8CA07F1E}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="615" windowWidth="24675" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sigmoid Fit" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>FIT</t>
   </si>
@@ -57,16 +57,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Y = (A/(1+exp(-B*X+C)))+D</t>
-  </si>
-  <si>
-    <t>X = [ln((A/(Y-D))-1) - C] / -B</t>
-  </si>
-  <si>
     <t>Xmid:</t>
-  </si>
-  <si>
-    <t>Equation Re-arranged to solve for X:</t>
   </si>
   <si>
     <t>Parameter Guesses:</t>
@@ -76,6 +67,24 @@
   </si>
   <si>
     <t>Ymid:</t>
+  </si>
+  <si>
+    <t>Normalized Data:</t>
+  </si>
+  <si>
+    <t>Ynorm</t>
+  </si>
+  <si>
+    <t>Ymin:</t>
+  </si>
+  <si>
+    <t>Ymax:</t>
+  </si>
+  <si>
+    <t>Raw Data:</t>
+  </si>
+  <si>
+    <t>(simple min/max normalization)</t>
   </si>
 </sst>
 </file>
@@ -227,7 +236,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sigmoid Fit'!$B$1</c:f>
+              <c:f>'Sigmoid Fit'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -243,7 +252,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sigmoid Fit'!$A$2:$A$14</c:f>
+              <c:f>'Sigmoid Fit'!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -291,7 +300,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sigmoid Fit'!$B$2:$B$14</c:f>
+              <c:f>'Sigmoid Fit'!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -362,7 +371,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sigmoid Fit'!$A$2:$A$14</c:f>
+              <c:f>'Sigmoid Fit'!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -410,48 +419,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sigmoid Fit'!$C$2:$C$14</c:f>
+              <c:f>'Sigmoid Fit'!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3.0635820837807062</c:v>
+                  <c:v>3.0386663083010133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1708689946398696</c:v>
+                  <c:v>3.1043759549906351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4505457951868843</c:v>
+                  <c:v>3.278466192137885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1324277592101168</c:v>
+                  <c:v>3.7206527102018137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5549435030149539</c:v>
+                  <c:v>4.7330424761603851</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.75</c:v>
+                  <c:v>6.5866363535823815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9450564969850461</c:v>
+                  <c:v>8.9133636464176185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.367572240789883</c:v>
+                  <c:v>10.766957523839615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.049454204813117</c:v>
+                  <c:v>11.779347289798187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.32913100536013</c:v>
+                  <c:v>12.221533807862114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.436417916219295</c:v>
+                  <c:v>12.395624045009365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.47651008001197</c:v>
+                  <c:v>12.461333691698988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.491345013653195</c:v>
+                  <c:v>12.485738768560999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,6 +469,321 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4A61-4C6D-A312-9BC25CA00D09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="68914560"/>
+        <c:axId val="68916352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68914560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68916352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="68916352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68914560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sigmoid Fit'!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ynorm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sigmoid Fit'!$A$25:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sigmoid Fit'!$C$25:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.0202020202020218E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0404040404040394E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0808080808080829E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48484848484848492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65656565656565657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77777777777777768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83838383838383823</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95959595959595956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93939393939393923</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96969696969696961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C50E-4BD1-A48A-00019B4C5C64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FIT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sigmoid Fit'!$A$25:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sigmoid Fit'!$D$25:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.0701377158961277E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.098694263059318E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9312230751356319E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5858180021243546E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18242552380635635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37754066879814541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62245933120185459</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81757447619364365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92414181997875655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97068776924864364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98901305736940681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99592986228410396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99849881774326299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C50E-4BD1-A48A-00019B4C5C64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -557,20 +881,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1269194" cy="320793"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2152650" cy="529697"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
+            <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B8AD53-69FC-B58B-2FB3-45EE45CE4CD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC344FF2-7BB9-466E-B12C-12F5FC9A6353}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -578,8 +902,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5029200" y="2476500"/>
-              <a:ext cx="1269194" cy="320793"/>
+              <a:off x="7296150" y="190500"/>
+              <a:ext cx="2152650" cy="529697"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -601,7 +925,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -614,13 +938,13 @@
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>𝑌</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>=</m:t>
@@ -628,14 +952,14 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
                       <m:num>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝐴</m:t>
@@ -643,7 +967,7 @@
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>1+</m:t>
@@ -651,14 +975,14 @@
                         <m:sSup>
                           <m:sSupPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSupPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>𝑒</m:t>
@@ -666,41 +990,59 @@
                           </m:e>
                           <m:sup>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>−</m:t>
                             </m:r>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝐵𝑋</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>+</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>𝐶</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
                             </m:r>
                           </m:sup>
                         </m:sSup>
                       </m:den>
                     </m:f>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>+</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>𝐷</m:t>
@@ -708,18 +1050,18 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-CA" sz="1100"/>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
+            <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B8AD53-69FC-B58B-2FB3-45EE45CE4CD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC344FF2-7BB9-466E-B12C-12F5FC9A6353}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -727,8 +1069,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5029200" y="2476500"/>
-              <a:ext cx="1269194" cy="320793"/>
+              <a:off x="7296150" y="190500"/>
+              <a:ext cx="2152650" cy="529697"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -750,18 +1092,19 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑌=𝐴/(1+𝑒^(−𝐵𝑋+𝐶) )+𝐷</a:t>
+                <a:t>𝑌=𝐴/(1+𝑒^(−𝐵(𝑋−𝐶)) )+𝐷</a:t>
               </a:r>
-              <a:endParaRPr lang="en-CA" sz="1100"/>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -771,20 +1114,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1452129" cy="431593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2438400" cy="529697"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
+            <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCB9472-1020-485D-AFAA-CB63D409B2AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7B5212-46B1-4554-8522-E88281D409BB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -792,8 +1135,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5010150" y="3076575"/>
-              <a:ext cx="1452129" cy="431593"/>
+              <a:off x="7153275" y="809625"/>
+              <a:ext cx="2438400" cy="529697"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -815,7 +1158,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -828,13 +1171,25 @@
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝑋</m:t>
+                      <m:t>𝑌</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>=</m:t>
@@ -842,110 +1197,1027 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
                       <m:num>
-                        <m:func>
-                          <m:funcPr>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
-                          </m:funcPr>
-                          <m:fName>
-                            <m:r>
-                              <m:rPr>
-                                <m:sty m:val="p"/>
-                              </m:rPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>ln</m:t>
-                            </m:r>
-                          </m:fName>
+                          </m:sSupPr>
                           <m:e>
-                            <m:d>
-                              <m:dPr>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7B5212-46B1-4554-8522-E88281D409BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7153275" y="809625"/>
+              <a:ext cx="2438400" cy="529697"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌−𝐷=𝐴/(1+𝑒^(−𝐵(𝑋−𝐶)) )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2828925" cy="461024"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEE1DE4-5BB4-4A6C-8547-6116E43845F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6791324" y="1371600"/>
+              <a:ext cx="2828925" cy="461024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>1+</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEE1DE4-5BB4-4A6C-8547-6116E43845F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6791324" y="1371600"/>
+              <a:ext cx="2828925" cy="461024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+𝑒^(−𝐵(𝑋−𝐶) )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=𝐴/(𝑌−𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2457450" cy="461024"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B0EDD5-EB11-4369-B79E-7D770756D7C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7010401" y="1905000"/>
+              <a:ext cx="2457450" cy="461024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−1</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B0EDD5-EB11-4369-B79E-7D770756D7C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7010401" y="1905000"/>
+              <a:ext cx="2457450" cy="461024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑒^(−𝐵(𝑋−𝐶) )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=𝐴/(𝑌−𝐷)−1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2752726" cy="553228"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06236F3-AF5F-45BD-A444-444379CD75AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7181850" y="2428875"/>
+              <a:ext cx="2752726" cy="553228"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)=</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
                                 <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:dPr>
-                              <m:e>
-                                <m:f>
-                                  <m:fPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:fPr>
-                                  <m:num>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝐴</m:t>
-                                    </m:r>
-                                  </m:num>
-                                  <m:den>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑌</m:t>
-                                    </m:r>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>−</m:t>
-                                    </m:r>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝐷</m:t>
-                                    </m:r>
-                                  </m:den>
-                                </m:f>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
@@ -954,55 +2226,92 @@
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>−1</m:t>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐴</m:t>
                                 </m:r>
-                              </m:e>
-                            </m:d>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑌</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐷</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
                           </m:e>
-                        </m:func>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐶</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐵</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
+                        </m:d>
+                      </m:e>
+                    </m:func>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-CA" sz="1100"/>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
+            <xdr:cNvPr id="10" name="TextBox 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCB9472-1020-485D-AFAA-CB63D409B2AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06236F3-AF5F-45BD-A444-444379CD75AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1010,8 +2319,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5010150" y="3076575"/>
-              <a:ext cx="1452129" cy="431593"/>
+              <a:off x="7181850" y="2428875"/>
+              <a:ext cx="2752726" cy="553228"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1033,31 +2342,14 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑋=(ln⁡(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐴/(𝑌−𝐷)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" sz="1600" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1066,15 +2358,9 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>−1)</a:t>
+                <a:t>−𝐵(𝑋−𝐶)=ln⁡(𝐴/(𝑌−𝐷)−1)</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>−𝐶)/(−𝐵)</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-CA" sz="1100"/>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1082,13 +2368,1484 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2752726" cy="553228"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0119E7-456A-4BAB-A92F-06B06E60A497}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7115175" y="3019425"/>
+              <a:ext cx="2752726" cy="553228"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐴</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑌</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐷</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0119E7-456A-4BAB-A92F-06B06E60A497}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7115175" y="3019425"/>
+              <a:ext cx="2752726" cy="553228"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑋−𝐶=〖1/𝐵 ln〗⁡(𝐴/(𝑌−𝐷)−1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2533650" cy="553228"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF82142F-7E78-423E-AF09-CD9348E30C5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7219950" y="3657600"/>
+              <a:ext cx="2533650" cy="553228"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐴</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑌</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐷</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF82142F-7E78-423E-AF09-CD9348E30C5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7219950" y="3657600"/>
+              <a:ext cx="2533650" cy="553228"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑋=〖𝐶+1/𝐵 ln〗⁡(𝐴/(𝑌−𝐷)−1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2152650" cy="529697"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFF44EB-1AC0-4216-AFA4-B3FF7E7DDC75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2971800" y="2695575"/>
+              <a:ext cx="2152650" cy="529697"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑌</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFF44EB-1AC0-4216-AFA4-B3FF7E7DDC75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2971800" y="2695575"/>
+              <a:ext cx="2152650" cy="529697"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌=𝐴/(1+𝑒^(−𝐵(𝑋−𝐶)) )+𝐷</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2152650" cy="529697"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41AA384-A6F0-491D-AD71-4FE34BB39D73}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3248025" y="5695950"/>
+              <a:ext cx="2152650" cy="529697"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛𝑜𝑟𝑚</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41AA384-A6F0-491D-AD71-4FE34BB39D73}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3248025" y="5695950"/>
+              <a:ext cx="2152650" cy="529697"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_𝑛𝑜𝑟𝑚=1/(1+𝑒^(−𝐵(𝑋−𝐶)) )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2152650" cy="563872"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DD2741-D5A4-4E31-BD17-150547940CD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3190875" y="4429125"/>
+              <a:ext cx="2152650" cy="563872"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛𝑜𝑟𝑚</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑌</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑌</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑚𝑖𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑌</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑚𝑎𝑥</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑌</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑚𝑖𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DD2741-D5A4-4E31-BD17-150547940CD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3190875" y="4429125"/>
+              <a:ext cx="2152650" cy="563872"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_𝑛𝑜𝑟𝑚=〖𝑌−𝑌〗_𝑚𝑖𝑛/(𝑌_𝑚𝑎𝑥−𝑌_𝑚𝑖𝑛 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>5721</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101BD9C2-50F0-413E-A4BA-90AEA38D2A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1126,9 +3883,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1161,26 +3918,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1213,26 +3953,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1406,9 +4129,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1417,29 +4142,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>3.1</v>
-      </c>
-      <c r="C2">
-        <f>($F$2/(1+EXP(-$F$3*A2+$F$4)))+$F$5</f>
-        <v>3.0635820837807062</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -1450,15 +4168,14 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>A2+2</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C14" si="0">($F$2/(1+EXP(-$F$3*A3+$F$4)))+$F$5</f>
-        <v>3.1708689946398696</v>
+        <f>($F$2/(1+EXP(-$F$3*(A3-$F$4))))+$F$5</f>
+        <v>3.0386663083010133</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1469,34 +4186,34 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A14" si="1">A3+2</f>
-        <v>14</v>
+        <f>A3+2</f>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>3.4505457951868843</v>
+        <f t="shared" ref="C4:C15" si="0">($F$2/(1+EXP(-$F$3*(A4-$F$4))))+$F$5</f>
+        <v>3.1043759549906351</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="4">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" ref="A5:A15" si="1">A4+2</f>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>4.1324277592101168</v>
+        <v>3.278466192137885</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -1508,105 +4225,105 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>5.5549435030149539</v>
+        <v>3.7206527102018137</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>4.7330424761603851</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>9.4</v>
+        <v>7.7</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>9.9450564969850461</v>
+        <v>6.5866363535823815</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>11.367572240789883</v>
+        <v>8.9133636464176185</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>12.049454204813117</v>
+        <v>10.766957523839615</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>12.32913100536013</v>
+        <v>11.779347289798187</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>12.436417916219295</v>
+        <v>12.221533807862114</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>12.47651008001197</v>
+        <v>12.395624045009365</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -1615,50 +4332,309 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>12.491345013653195</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
+        <v>12.461333691698988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>12.8</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>12.485738768560999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="6">
+        <f>F4</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
         <v>11</v>
       </c>
+      <c r="G21" s="6">
+        <f>($F$2/(1+EXP(-$F$3*(G20-$F$4))))+$F$5</f>
+        <v>7.75</v>
+      </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>9</v>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>13</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>10</v>
       </c>
-      <c r="G20" s="6">
-        <f>F4/F3</f>
+      <c r="B25">
+        <v>3.1</v>
+      </c>
+      <c r="C25">
+        <f>(B25-$H$28)/($H$29-$H$28)</f>
+        <v>2.0202020202020218E-2</v>
+      </c>
+      <c r="D25">
+        <f>(1/(1+EXP(-$F$3*(A25-$F$4))))</f>
+        <v>4.0701377158961277E-3</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A25+2</f>
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>2.9</v>
+      </c>
+      <c r="C26">
+        <f>(B26-$H$28)/($H$29-$H$28)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D37" si="2">(1/(1+EXP(-$F$3*(A26-$F$4))))</f>
+        <v>1.098694263059318E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ref="A27:A37" si="3">A26+2</f>
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>3.3</v>
+      </c>
+      <c r="C27">
+        <f>(B27-$H$28)/($H$29-$H$28)</f>
+        <v>4.0404040404040394E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>2.9312230751356319E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>3.7</v>
+      </c>
+      <c r="C28">
+        <f>(B28-$H$28)/($H$29-$H$28)</f>
+        <v>8.0808080808080829E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>7.5858180021243546E-2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="6">
+        <f>MIN(B3:B15)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>5.6</v>
+      </c>
+      <c r="C29">
+        <f>(B29-$H$28)/($H$29-$H$28)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="6">
+        <f>MAX(B3:B15)</f>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
+      <c r="B30">
+        <v>7.7</v>
+      </c>
+      <c r="C30">
+        <f>(B30-$H$28)/($H$29-$H$28)</f>
+        <v>0.48484848484848492</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0.37754066879814541</v>
+      </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="6">
-        <f>($F$2/(1+EXP(-$F$3*G20+$F$4)))+$F$5</f>
-        <v>7.75</v>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>9.4</v>
+      </c>
+      <c r="C31">
+        <f>(B31-$H$28)/($H$29-$H$28)</f>
+        <v>0.65656565656565657</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0.62245933120185459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>10.6</v>
+      </c>
+      <c r="C32">
+        <f>(B32-$H$28)/($H$29-$H$28)</f>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0.81757447619364365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>11.2</v>
+      </c>
+      <c r="C33">
+        <f>(B33-$H$28)/($H$29-$H$28)</f>
+        <v>0.83838383838383823</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0.92414181997875655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>12.4</v>
+      </c>
+      <c r="C34">
+        <f>(B34-$H$28)/($H$29-$H$28)</f>
+        <v>0.95959595959595956</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.97068776924864364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>12.2</v>
+      </c>
+      <c r="C35">
+        <f>(B35-$H$28)/($H$29-$H$28)</f>
+        <v>0.93939393939393923</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.98901305736940681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>12.5</v>
+      </c>
+      <c r="C36">
+        <f>(B36-$H$28)/($H$29-$H$28)</f>
+        <v>0.96969696969696961</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0.99592986228410396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>12.8</v>
+      </c>
+      <c r="C37">
+        <f>(B37-$H$28)/($H$29-$H$28)</f>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0.99849881774326299</v>
       </c>
     </row>
   </sheetData>
